--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niki\Documents\Software University\Level2\AngularJS\AdsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -830,7 +830,9 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
@@ -840,7 +842,9 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5">
+        <v>10</v>
+      </c>
       <c r="D17" s="5" t="s">
         <v>3</v>
       </c>
@@ -850,7 +854,9 @@
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
@@ -860,7 +866,9 @@
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="5">
+        <v>10</v>
+      </c>
       <c r="D19" s="5" t="s">
         <v>3</v>
       </c>
@@ -870,7 +878,9 @@
       <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
@@ -880,7 +890,9 @@
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
@@ -890,7 +902,9 @@
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
       <c r="D22" s="5" t="s">
         <v>5</v>
       </c>
@@ -900,7 +914,9 @@
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
       <c r="D23" s="5" t="s">
         <v>5</v>
       </c>
@@ -910,7 +926,9 @@
       <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="5">
+        <v>5</v>
+      </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
@@ -920,7 +938,9 @@
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
       <c r="D25" s="5" t="s">
         <v>5</v>
       </c>
@@ -930,7 +950,9 @@
       <c r="B26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5"/>
+      <c r="C26" s="5">
+        <v>10</v>
+      </c>
       <c r="D26" s="5" t="s">
         <v>3</v>
       </c>
@@ -940,7 +962,9 @@
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
@@ -950,7 +974,9 @@
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
       <c r="D28" s="5" t="s">
         <v>5</v>
       </c>
@@ -960,7 +986,9 @@
       <c r="B29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
       <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
@@ -970,7 +998,9 @@
       <c r="B30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
       <c r="D30" s="5" t="s">
         <v>5</v>
       </c>
@@ -980,7 +1010,9 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
       <c r="D31" s="5" t="s">
         <v>5</v>
       </c>
@@ -1180,7 +1212,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +771,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -783,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
@@ -1022,7 +1022,9 @@
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="5"/>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
       <c r="D32" s="5" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1214,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Galabov</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -669,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1045,9 @@
       <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D34" s="7" t="s">
         <v>28</v>
       </c>
@@ -1052,7 +1057,9 @@
       <c r="B35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D35" s="7" t="s">
         <v>28</v>
       </c>
@@ -1062,7 +1069,9 @@
       <c r="B36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D36" s="7" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1081,9 @@
       <c r="B37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D37" s="7" t="s">
         <v>28</v>
       </c>
@@ -1082,7 +1093,9 @@
       <c r="B38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D38" s="7" t="s">
         <v>28</v>
       </c>
@@ -1092,7 +1105,9 @@
       <c r="B39" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>28</v>
       </c>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -672,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
@@ -1117,7 +1120,9 @@
       <c r="B40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1127,7 +1132,9 @@
       <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="7"/>
+      <c r="C41" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
@@ -1137,7 +1144,9 @@
       <c r="B42" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D42" s="7" t="s">
         <v>28</v>
       </c>
@@ -1147,7 +1156,9 @@
       <c r="B43" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="7"/>
+      <c r="C43" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>28</v>
       </c>
@@ -1157,7 +1168,9 @@
       <c r="B44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D44" s="7" t="s">
         <v>28</v>
       </c>
@@ -1187,7 +1200,9 @@
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="7"/>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="D47" s="7" t="s">
         <v>28</v>
       </c>
@@ -1197,7 +1212,9 @@
       <c r="B48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
@@ -1229,7 +1246,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>

--- a/JS-SPA-Self-Evaluation-Protocol.xlsx
+++ b/JS-SPA-Self-Evaluation-Protocol.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -207,13 +207,19 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>https://github.com/nikola-galabov</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +249,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -338,10 +352,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,11 +405,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,15 +759,19 @@
       <c r="B7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="C7" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
       <c r="D8" s="12" t="s">
         <v>56</v>
       </c>
@@ -758,7 +781,9 @@
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6">
+        <v>33</v>
+      </c>
       <c r="D9" s="12" t="s">
         <v>56</v>
       </c>
@@ -1180,7 +1205,9 @@
       <c r="B45" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="C45" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D45" s="7" t="s">
         <v>28</v>
       </c>
@@ -1190,7 +1217,9 @@
       <c r="B46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D46" s="7" t="s">
         <v>28</v>
       </c>
@@ -1224,7 +1253,9 @@
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D49" s="7" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1265,9 @@
       <c r="B50" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="7"/>
+      <c r="C50" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D50" s="7" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1279,7 @@
       </c>
       <c r="C51" s="11">
         <f>SUM(C6:C50)</f>
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="D51" s="11">
         <v>430</v>
@@ -1263,7 +1296,10 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="C7:E7"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>